--- a/source/samples/export/iTinExportEngineSamples/output/EPPlusSamples/sample03-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/EPPlusSamples/sample03-from-config-file.xlsx
@@ -87,11 +87,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="##0.0;[Black]\-##0.0"/>
-    <numFmt numFmtId="165" formatCode="##0;[Black]\-##0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -103,9 +102,14 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000" tint="0"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -123,18 +127,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD7EEF7" tint="0"/>
+        <fgColor rgb="FFDDEBF7" tint="0"/>
         <bgColor rgb="FFFFFF" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB6DDE9" tint="0"/>
+        <fgColor rgb="FFBDD7EE" tint="0"/>
         <bgColor rgb="FFFFFF" tint="0"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -143,142 +147,130 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF9BC2E6" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9BC2E6" tint="0"/>
+      </right>
       <top style="thin">
-        <color rgb="FF000000" tint="0"/>
+        <color rgb="FF5B9BD5" tint="0"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9BC2E6" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9BC2E6" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5B9BD5" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9BC2E6" tint="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9BC2E6" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9BC2E6" tint="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" xfId="4" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" xfId="5" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" xfId="10" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" xfId="11" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="_Default_" xfId="1"/>
     <cellStyle name="HeaderStyle" xfId="2"/>
     <cellStyle name="HeaderStyle_Alternate" xfId="3"/>
-    <cellStyle name="AggregateStyle" xfId="4"/>
-    <cellStyle name="AggregateStyle_Alternate" xfId="5"/>
-    <cellStyle name="ValueTextStyle" xfId="6"/>
-    <cellStyle name="ValueTextStyle_Alternate" xfId="7"/>
-    <cellStyle name="DateTimeStandardWithBorderStyle" xfId="8"/>
-    <cellStyle name="DateTimeStandardWithBorderStyle_Alternate" xfId="9"/>
+    <cellStyle name="AggregateTotalStyle" xfId="4"/>
+    <cellStyle name="AggregateTotalStyle_Alternate" xfId="5"/>
+    <cellStyle name="AggregateStyle" xfId="6"/>
+    <cellStyle name="AggregateStyle_Alternate" xfId="7"/>
+    <cellStyle name="DateTimeStyle" xfId="8"/>
+    <cellStyle name="DateTimeStyle_Alternate" xfId="9"/>
     <cellStyle name="NumericStandardStyle" xfId="10"/>
     <cellStyle name="NumericStandardStyle_Alternate" xfId="11"/>
-    <cellStyle name="NumericStandardWithBorderStyle" xfId="12"/>
-    <cellStyle name="NumericStandardWithBorderStyle_Alternate" xfId="13"/>
-    <cellStyle name="NumericWithoutDecimalsStyle" xfId="14"/>
-    <cellStyle name="NumericWithoutDecimalsStyle_Alternate" xfId="15"/>
-    <cellStyle name="NumericWithoutDecimalsWithBorderStyle" xfId="16"/>
-    <cellStyle name="NumericWithoutDecimalsWithBorderStyle_Alternate" xfId="17"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -563,12 +555,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="1">
+            <a:defRPr sz="1000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Segoe UI"/>
-              <a:cs typeface="Segoe UI"/>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -788,17 +780,17 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="1"/>
+    <sheetView workbookViewId="0" showGridLines="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.3380443028041" customWidth="1"/>
-    <col min="2" max="2" width="10.0882306780134" customWidth="1"/>
-    <col min="3" max="3" width="9.06516538347517" customWidth="1"/>
-    <col min="4" max="4" width="7.4543023790632" customWidth="1"/>
-    <col min="5" max="5" width="17.1873735700335" customWidth="1"/>
-    <col min="6" max="6" width="17.1427307128906" customWidth="1"/>
-    <col min="7" max="7" width="11.797679901123" customWidth="1"/>
+    <col min="1" max="1" width="11.8295484270368" customWidth="1"/>
+    <col min="2" max="2" width="10.0456025259835" customWidth="1"/>
+    <col min="3" max="3" width="8.91818455287388" customWidth="1"/>
+    <col min="4" max="4" width="7.42655563354492" customWidth="1"/>
+    <col min="5" max="5" width="16.8203408377511" customWidth="1"/>
+    <col min="6" max="6" width="16.8101109095982" customWidth="1"/>
+    <col min="7" max="7" width="11.6947838919503" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1101,25 +1093,25 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="6">
         <f>SUBTOTAL(109,B2:B13)</f>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="6">
         <f>SUBTOTAL(109,C2:C13)</f>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="6">
         <f>SUBTOTAL(109,D2:D13)</f>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="6">
         <f>SUBTOTAL(109,E2:E13)</f>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="6">
         <f>SUBTOTAL(109,F2:F13)</f>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="6">
         <f>SUBTOTAL(109,G2:G13)</f>
       </c>
     </row>

--- a/source/samples/export/iTinExportEngineSamples/output/EPPlusSamples/sample03-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/EPPlusSamples/sample03-from-config-file.xlsx
@@ -6,7 +6,6 @@
   </bookViews>
   <sheets>
     <sheet name="Stacked area chart" sheetId="1" r:id="rId1"/>
-    <sheet name="PivotSimple" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Stacked area chart'!$A$1:$G$1</definedName>
@@ -14,9 +13,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Stacked area chart'!$1:$1</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
-  <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
-  </pivotCaches>
 </workbook>
 </file>
 
@@ -581,66 +577,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <pivotSource xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-    <c:name>[]PivotSimple!PerEmploee</c:name>
-    <c:fmtId val="0"/>
-  </pivotSource>
-  <c:chart>
-    <pivotFmts xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-    </pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>
-              </c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'PivotSimple'!$A$1</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'PivotSimple'!$B$1</c:f>
-              <c:numCache>General</c:numCache>
-            </c:numRef>
-          </c:val>
-        </ser>
-      </c:pieChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -676,106 +612,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="PivotChart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="SomeUser" refreshedDate="40504.582403125001" createdVersion="1" refreshedVersion="3" recordCount="5" upgradeOnRefresh="1">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H501" sheet="Stacked area chart"/>
-  </cacheSource>
-  <cacheFields count="8">
-    <cacheField name="Period" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Europe" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Africa" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Asia" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="North America" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="South America" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Australia" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Column8" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="0"/>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PerEmploee" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" createdVersion="4" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" indent="0" compact="0" compactData="0" gridDropZones="1">
-  <location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" axis="axisRow">
-      <items count="1">
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" dataField="1"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields>
-    <field x="3"/>
-  </rowFields>
-  <dataFields>
-    <dataField fld="5" numFmtId="3" name="South America"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G14"/>
@@ -1122,16 +958,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <headerFooter/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>